--- a/Forecasts/Siskiyou.xlsx
+++ b/Forecasts/Siskiyou.xlsx
@@ -7484,7 +7484,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-04-20 09:37:48"</t>
+    <t xml:space="preserve">[1] "2021-04-20 12:04:48"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
